--- a/新导表工具/DataTables/Datas/历练表.xlsx
+++ b/新导表工具/DataTables/Datas/历练表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15300"/>
+    <workbookView windowHeight="15140"/>
   </bookViews>
   <sheets>
     <sheet name="历练表" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>##var</t>
   </si>
@@ -77,19 +77,37 @@
     <t xml:space="preserve"> 效果列表</t>
   </si>
   <si>
-    <t>遭遇</t>
+    <t>劫数</t>
   </si>
   <si>
     <t>四只狼妖堵住了去路。</t>
   </si>
   <si>
+    <t>半路跳出一伙匪盗，喝道：“此山是我开，此树是我栽，要想过此路，留下买路财。”</t>
+  </si>
+  <si>
     <t>休憩</t>
   </si>
   <si>
-    <t>一处清潭，正好休整一番。</t>
+    <t>一处清泉，泉水甘甜，正好休整一番。</t>
   </si>
   <si>
     <t>20001</t>
+  </si>
+  <si>
+    <t>灵气汇聚之处，打坐以恢复灵气。</t>
+  </si>
+  <si>
+    <t>20002</t>
+  </si>
+  <si>
+    <t>灵材</t>
+  </si>
+  <si>
+    <t>发现一丛灵植。逢三取二，逢五取三。</t>
+  </si>
+  <si>
+    <t>发现一处灵矿。简单采掘一下。</t>
   </si>
 </sst>
 </file>
@@ -1071,16 +1089,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="5"/>
   <cols>
     <col min="3" max="3" width="10.4107142857143" customWidth="1"/>
-    <col min="4" max="4" width="30.5089285714286" customWidth="1"/>
+    <col min="4" max="4" width="81.6875" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="14.5714285714286" style="3" customWidth="1"/>
   </cols>
@@ -1153,7 +1171,7 @@
     </row>
     <row r="5" s="2" customFormat="1" spans="2:5">
       <c r="B5" s="2">
-        <v>10000</v>
+        <v>10001</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>16</v>
@@ -1162,28 +1180,74 @@
         <v>17</v>
       </c>
       <c r="E5" s="2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="2:6">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="2:5">
       <c r="B6" s="2">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="2:6">
+      <c r="B7" s="2">
+        <v>20001</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" s="2" customFormat="1"/>
-    <row r="8" s="2" customFormat="1"/>
-    <row r="9" s="2" customFormat="1"/>
-    <row r="10" s="2" customFormat="1"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="2:6">
+      <c r="B8" s="2">
+        <v>20002</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="2:4">
+      <c r="B9" s="2">
+        <v>30001</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="2:4">
+      <c r="B10" s="2">
+        <v>30002</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="11" s="2" customFormat="1" spans="6:6">
       <c r="F11" s="3"/>
     </row>
@@ -1219,9 +1283,6 @@
     </row>
     <row r="22" s="2" customFormat="1" spans="6:6">
       <c r="F22" s="3"/>
-    </row>
-    <row r="23" s="2" customFormat="1" spans="6:6">
-      <c r="F23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/新导表工具/DataTables/Datas/历练表.xlsx
+++ b/新导表工具/DataTables/Datas/历练表.xlsx
@@ -1092,7 +1092,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F$1:F$1048576"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="5"/>

--- a/新导表工具/DataTables/Datas/历练表.xlsx
+++ b/新导表工具/DataTables/Datas/历练表.xlsx
@@ -743,7 +743,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -763,6 +763,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1092,7 +1095,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="5"/>
@@ -1180,7 +1183,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="2">
-        <v>10001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="2:5">
@@ -1193,8 +1196,8 @@
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="2">
-        <v>10002</v>
+      <c r="E6" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="2:6">
@@ -1207,7 +1210,9 @@
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
       <c r="F7" s="3" t="s">
         <v>21</v>
       </c>
@@ -1222,11 +1227,14 @@
       <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
       <c r="F8" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="2:4">
+    <row r="9" s="2" customFormat="1" spans="2:5">
       <c r="B9" s="2">
         <v>30001</v>
       </c>
@@ -1236,8 +1244,11 @@
       <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="2:4">
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="2:5">
       <c r="B10" s="2">
         <v>30002</v>
       </c>
@@ -1246,6 +1257,9 @@
       </c>
       <c r="D10" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="6:6">

--- a/新导表工具/DataTables/Datas/历练表.xlsx
+++ b/新导表工具/DataTables/Datas/历练表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>##var</t>
   </si>
@@ -41,6 +41,9 @@
     <t>Desc</t>
   </si>
   <si>
+    <t>ExploreType</t>
+  </si>
+  <si>
     <t>BattleId</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>EExploreType</t>
+  </si>
+  <si>
     <t>(list#sep=,),int</t>
   </si>
   <si>
@@ -90,6 +96,9 @@
   </si>
   <si>
     <t>一处清泉，泉水甘甜，正好休整一番。</t>
+  </si>
+  <si>
+    <t>效果</t>
   </si>
   <si>
     <t>20001</t>
@@ -1092,21 +1101,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="6"/>
   <cols>
     <col min="3" max="3" width="10.4107142857143" customWidth="1"/>
     <col min="4" max="4" width="81.6875" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.1339285714286" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="14.5714285714286" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1122,181 +1132,205 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:6">
+      <c r="G2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:6">
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="2:5">
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="2:6">
       <c r="B5" s="2">
         <v>10001</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="2:5">
+    <row r="6" s="2" customFormat="1" spans="2:6">
       <c r="B6" s="2">
         <v>10002</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="F6" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="2:6">
+    <row r="7" s="2" customFormat="1" spans="2:7">
       <c r="B7" s="2">
         <v>20001</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="7">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="7">
         <v>1</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="2:6">
+      <c r="G7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="2:7">
       <c r="B8" s="2">
         <v>20002</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="7">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="7">
         <v>1</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="2:5">
+      <c r="G8" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="B9" s="2">
         <v>30001</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="7">
+        <v>28</v>
+      </c>
+      <c r="F9" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="2:5">
+    <row r="10" s="2" customFormat="1" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="B10" s="2">
         <v>30002</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="7">
+        <v>29</v>
+      </c>
+      <c r="F10" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="6:6">
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="6:6">
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" s="2" customFormat="1" spans="6:6">
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="6:6">
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" s="2" customFormat="1" spans="6:6">
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="6:6">
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="6:6">
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" s="2" customFormat="1" spans="6:6">
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" s="2" customFormat="1" spans="6:6">
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" s="2" customFormat="1" spans="6:6">
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" s="2" customFormat="1" spans="6:6">
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" s="2" customFormat="1" spans="6:6">
-      <c r="F22" s="3"/>
+    <row r="11" s="2" customFormat="1" spans="7:7">
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="7:7">
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="7:7">
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="7:7">
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="7:7">
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="7:7">
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="7:7">
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="7:7">
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="7:7">
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="7:7">
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="7:7">
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="7:7">
+      <c r="G22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/新导表工具/DataTables/Datas/历练表.xlsx
+++ b/新导表工具/DataTables/Datas/历练表.xlsx
@@ -752,7 +752,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -772,9 +772,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1104,7 +1101,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="6"/>
@@ -1202,7 +1199,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="2">
-        <v>1</v>
+        <v>10001</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="2:6">
@@ -1218,8 +1215,8 @@
       <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="7">
-        <v>1</v>
+      <c r="F6" s="2">
+        <v>10001</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="2:7">
@@ -1235,9 +1232,6 @@
       <c r="E7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="7">
-        <v>1</v>
-      </c>
       <c r="G7" s="3" t="s">
         <v>24</v>
       </c>
@@ -1255,14 +1249,11 @@
       <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="7">
-        <v>1</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:6">
+    <row r="9" s="2" customFormat="1" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1275,11 +1266,8 @@
       <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="1:6">
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1292,9 +1280,6 @@
       <c r="D10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="7">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="7:7">
       <c r="G11" s="3"/>
@@ -1320,16 +1305,20 @@
     <row r="18" s="2" customFormat="1" spans="7:7">
       <c r="G18" s="3"/>
     </row>
-    <row r="19" s="2" customFormat="1" spans="7:7">
+    <row r="19" s="2" customFormat="1" spans="6:7">
+      <c r="F19"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" s="2" customFormat="1" spans="7:7">
+    <row r="20" s="2" customFormat="1" spans="6:7">
+      <c r="F20"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" s="2" customFormat="1" spans="7:7">
+    <row r="21" s="2" customFormat="1" spans="6:7">
+      <c r="F21"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" s="2" customFormat="1" spans="7:7">
+    <row r="22" s="2" customFormat="1" spans="6:7">
+      <c r="F22"/>
       <c r="G22" s="3"/>
     </row>
   </sheetData>

--- a/新导表工具/DataTables/Datas/历练表.xlsx
+++ b/新导表工具/DataTables/Datas/历练表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15140"/>
+    <workbookView windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="历练表" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>##var</t>
   </si>
@@ -50,6 +50,9 @@
     <t>EffectList</t>
   </si>
   <si>
+    <t>RewardId</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -80,7 +83,10 @@
     <t>战斗</t>
   </si>
   <si>
-    <t xml:space="preserve"> 效果列表</t>
+    <t xml:space="preserve"> 效果</t>
+  </si>
+  <si>
+    <t>奖励</t>
   </si>
   <si>
     <t>劫数</t>
@@ -765,13 +771,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1098,22 +1104,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="10.4107142857143" customWidth="1"/>
-    <col min="4" max="4" width="81.6875" customWidth="1"/>
-    <col min="5" max="5" width="14.1339285714286" customWidth="1"/>
+    <col min="3" max="3" width="10.4083333333333" customWidth="1"/>
+    <col min="4" max="4" width="81.6916666666667" customWidth="1"/>
+    <col min="5" max="5" width="14.1333333333333" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.0833333333333" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1132,177 +1139,192 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:7">
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="2:6">
+      <c r="G4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:8">
       <c r="B5" s="2">
         <v>10001</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>18</v>
+      <c r="C5" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2">
         <v>10001</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="2:6">
+    <row r="6" s="2" customFormat="1" spans="1:8">
       <c r="B6" s="2">
         <v>10002</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
+      <c r="C6" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" s="2">
         <v>10001</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="2:7">
+    <row r="7" s="2" customFormat="1" spans="1:8">
       <c r="B7" s="2">
         <v>20001</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>21</v>
+      <c r="C7" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="2:7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:8">
       <c r="B8" s="2">
         <v>20002</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>21</v>
+      <c r="C8" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="G8" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:8">
       <c r="B9" s="2">
         <v>30001</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="2">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:8">
       <c r="B10" s="2">
         <v>30002</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="7:7">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="2">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:8">
       <c r="G11" s="3"/>
     </row>
-    <row r="12" s="2" customFormat="1" spans="7:7">
+    <row r="12" s="2" customFormat="1" spans="1:8">
       <c r="G12" s="3"/>
     </row>
-    <row r="13" s="2" customFormat="1" spans="7:7">
+    <row r="13" s="2" customFormat="1" spans="1:8">
       <c r="G13" s="3"/>
     </row>
-    <row r="14" s="2" customFormat="1" spans="7:7">
+    <row r="14" s="2" customFormat="1" spans="1:8">
       <c r="G14" s="3"/>
     </row>
-    <row r="15" s="2" customFormat="1" spans="7:7">
+    <row r="15" s="2" customFormat="1" spans="1:8">
       <c r="G15" s="3"/>
     </row>
-    <row r="16" s="2" customFormat="1" spans="7:7">
+    <row r="16" s="2" customFormat="1" spans="1:8">
       <c r="G16" s="3"/>
     </row>
-    <row r="17" s="2" customFormat="1" spans="7:7">
+    <row r="17" s="2" customFormat="1" spans="6:7">
       <c r="G17" s="3"/>
     </row>
-    <row r="18" s="2" customFormat="1" spans="7:7">
+    <row r="18" s="2" customFormat="1" spans="6:7">
       <c r="G18" s="3"/>
     </row>
     <row r="19" s="2" customFormat="1" spans="6:7">

--- a/新导表工具/DataTables/Datas/历练表.xlsx
+++ b/新导表工具/DataTables/Datas/历练表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>##var</t>
   </si>
@@ -41,6 +41,24 @@
     <t>Desc</t>
   </si>
   <si>
+    <t>*ItemList</t>
+  </si>
+  <si>
+    <t>##type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>list,ExploreItemCfg</t>
+  </si>
+  <si>
+    <t>Name#default=确认</t>
+  </si>
+  <si>
     <t>ExploreType</t>
   </si>
   <si>
@@ -53,21 +71,6 @@
     <t>RewardId</t>
   </si>
   <si>
-    <t>##type</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>EExploreType</t>
-  </si>
-  <si>
-    <t>(list#sep=,),int</t>
-  </si>
-  <si>
     <t>##</t>
   </si>
   <si>
@@ -80,6 +83,9 @@
     <t>描述</t>
   </si>
   <si>
+    <t>探索类型</t>
+  </si>
+  <si>
     <t>战斗</t>
   </si>
   <si>
@@ -92,10 +98,10 @@
     <t>劫数</t>
   </si>
   <si>
-    <t>四只狼妖堵住了去路。</t>
-  </si>
-  <si>
-    <t>半路跳出一伙匪盗，喝道：“此山是我开，此树是我栽，要想过此路，留下买路财。”</t>
+    <t>两只狼妖</t>
+  </si>
+  <si>
+    <t>四只狼妖</t>
   </si>
   <si>
     <t>休憩</t>
@@ -104,13 +110,16 @@
     <t>一处清泉，泉水甘甜，正好休整一番。</t>
   </si>
   <si>
+    <t>疗伤</t>
+  </si>
+  <si>
     <t>效果</t>
   </si>
   <si>
     <t>20001</t>
   </si>
   <si>
-    <t>灵气汇聚之处，打坐以恢复灵气。</t>
+    <t>打坐</t>
   </si>
   <si>
     <t>20002</t>
@@ -119,10 +128,7 @@
     <t>灵材</t>
   </si>
   <si>
-    <t>发现一丛灵植。逢三取二，逢五取三。</t>
-  </si>
-  <si>
-    <t>发现一处灵矿。简单采掘一下。</t>
+    <t>发现一丛灵植。</t>
   </si>
 </sst>
 </file>
@@ -758,7 +764,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -772,9 +778,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1104,23 +1107,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="10.4083333333333" customWidth="1"/>
     <col min="4" max="4" width="81.6916666666667" customWidth="1"/>
-    <col min="5" max="5" width="14.1333333333333" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="18.0833333333333" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="5" max="5" width="17.8333333333333" customWidth="1"/>
+    <col min="6" max="6" width="18.5833333333333" customWidth="1"/>
+    <col min="7" max="7" width="14.1333333333333" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="18.0833333333333" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1136,214 +1141,201 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:9">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
-      <c r="A2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:8">
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:8">
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:8">
+      <c r="H4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:9">
       <c r="B5" s="2">
         <v>10001</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>20</v>
+      <c r="C5" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2">
         <v>10001</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:8">
+    <row r="6" s="2" customFormat="1" spans="1:9">
       <c r="B6" s="2">
         <v>10002</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>20</v>
+      <c r="C6" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="2">
-        <v>10001</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="2">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:9">
       <c r="B7" s="2">
         <v>20001</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>23</v>
+      <c r="C7" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="1:8">
-      <c r="B8" s="2">
-        <v>20002</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:9">
+      <c r="C8" s="5"/>
       <c r="E8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="1:8">
+      <c r="H8" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:9">
       <c r="B9" s="2">
         <v>30001</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="2">
+        <v>33</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="2">
         <v>10001</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:8">
-      <c r="B10" s="2">
-        <v>30002</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="2">
-        <v>10001</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="1:8">
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="1:8">
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" s="2" customFormat="1" spans="1:8">
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="1:8">
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" s="2" customFormat="1" spans="1:8">
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="1:8">
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="6:7">
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" s="2" customFormat="1" spans="6:7">
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" s="2" customFormat="1" spans="6:7">
-      <c r="F19"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" s="2" customFormat="1" spans="6:7">
-      <c r="F20"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" s="2" customFormat="1" spans="6:7">
-      <c r="F21"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" s="2" customFormat="1" spans="6:7">
-      <c r="F22"/>
-      <c r="G22" s="3"/>
+    <row r="10" s="2" customFormat="1" spans="1:9">
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:9">
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:9">
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:9">
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:9">
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:9">
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:9">
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="8:9">
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="8:9">
+      <c r="H18"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="8:9">
+      <c r="H19"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="8:9">
+      <c r="H20"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="8:9">
+      <c r="H21"/>
+      <c r="I21" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="E2:I2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
